--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H2">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I2">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J2">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06694666666666665</v>
+        <v>0.06694666666666667</v>
       </c>
       <c r="N2">
         <v>0.20084</v>
       </c>
       <c r="O2">
-        <v>0.5868893752684746</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="P2">
-        <v>0.5868893752684747</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="Q2">
-        <v>0.01435392322222222</v>
+        <v>0.04826165116</v>
       </c>
       <c r="R2">
-        <v>0.129185309</v>
+        <v>0.43435486044</v>
       </c>
       <c r="S2">
-        <v>0.005053907967117617</v>
+        <v>0.01451770577731059</v>
       </c>
       <c r="T2">
-        <v>0.005053907967117618</v>
+        <v>0.01451770577731059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H3">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I3">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J3">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.04712366666666667</v>
+        <v>0.064349</v>
       </c>
       <c r="N3">
-        <v>0.141371</v>
+        <v>0.193047</v>
       </c>
       <c r="O3">
-        <v>0.4131106247315253</v>
+        <v>0.4901075689220513</v>
       </c>
       <c r="P3">
-        <v>0.4131106247315254</v>
+        <v>0.4901075689220513</v>
       </c>
       <c r="Q3">
-        <v>0.01010370683055556</v>
+        <v>0.04638900105300001</v>
       </c>
       <c r="R3">
-        <v>0.090933361475</v>
+        <v>0.417501009477</v>
       </c>
       <c r="S3">
-        <v>0.003557438872831034</v>
+        <v>0.01395438930089861</v>
       </c>
       <c r="T3">
-        <v>0.003557438872831034</v>
+        <v>0.01395438930089861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I4">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J4">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06694666666666665</v>
+        <v>0.06694666666666667</v>
       </c>
       <c r="N4">
         <v>0.20084</v>
       </c>
       <c r="O4">
-        <v>0.5868893752684746</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="P4">
-        <v>0.5868893752684747</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="Q4">
         <v>1.604795818906666</v>
@@ -694,10 +694,10 @@
         <v>14.44316237016</v>
       </c>
       <c r="S4">
-        <v>0.565036488575686</v>
+        <v>0.482742570375522</v>
       </c>
       <c r="T4">
-        <v>0.5650364885756861</v>
+        <v>0.482742570375522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I5">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J5">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04712366666666667</v>
+        <v>0.064349</v>
       </c>
       <c r="N5">
-        <v>0.141371</v>
+        <v>0.193047</v>
       </c>
       <c r="O5">
-        <v>0.4131106247315253</v>
+        <v>0.4901075689220513</v>
       </c>
       <c r="P5">
-        <v>0.4131106247315254</v>
+        <v>0.4901075689220513</v>
       </c>
       <c r="Q5">
-        <v>1.129613571572667</v>
+        <v>1.542526481042</v>
       </c>
       <c r="R5">
-        <v>10.166522144154</v>
+        <v>13.882738329378</v>
       </c>
       <c r="S5">
-        <v>0.3977284078193254</v>
+        <v>0.4640111779689473</v>
       </c>
       <c r="T5">
-        <v>0.3977284078193255</v>
+        <v>0.4640111779689474</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7126843333333334</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H6">
-        <v>2.138053</v>
+        <v>1.881802</v>
       </c>
       <c r="I6">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J6">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06694666666666665</v>
+        <v>0.06694666666666667</v>
       </c>
       <c r="N6">
         <v>0.20084</v>
       </c>
       <c r="O6">
-        <v>0.5868893752684746</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="P6">
-        <v>0.5868893752684747</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="Q6">
-        <v>0.04771184050222221</v>
+        <v>0.04199345707555555</v>
       </c>
       <c r="R6">
-        <v>0.42940656452</v>
+        <v>0.3779411136800001</v>
       </c>
       <c r="S6">
-        <v>0.01679897872567099</v>
+        <v>0.01263215492511626</v>
       </c>
       <c r="T6">
-        <v>0.01679897872567099</v>
+        <v>0.01263215492511627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7126843333333334</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H7">
-        <v>2.138053</v>
+        <v>1.881802</v>
       </c>
       <c r="I7">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J7">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.04712366666666667</v>
+        <v>0.064349</v>
       </c>
       <c r="N7">
-        <v>0.141371</v>
+        <v>0.193047</v>
       </c>
       <c r="O7">
-        <v>0.4131106247315253</v>
+        <v>0.4901075689220513</v>
       </c>
       <c r="P7">
-        <v>0.4131106247315254</v>
+        <v>0.4901075689220513</v>
       </c>
       <c r="Q7">
-        <v>0.03358429896255555</v>
+        <v>0.04036402563266667</v>
       </c>
       <c r="R7">
-        <v>0.302258690663</v>
+        <v>0.363276230694</v>
       </c>
       <c r="S7">
-        <v>0.01182477803936882</v>
+        <v>0.01214200165220533</v>
       </c>
       <c r="T7">
-        <v>0.01182477803936882</v>
+        <v>0.01214200165220534</v>
       </c>
     </row>
   </sheetData>
